--- a/INTLINE/data/536/BIDN/SEKI/EXDB.xlsx
+++ b/INTLINE/data/536/BIDN/SEKI/EXDB.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="116">
   <si>
     <t xml:space="preserve">EXTERNAL DEBT </t>
   </si>
@@ -373,10 +373,13 @@
     <t>2019</t>
   </si>
   <si>
-    <t>Q4**</t>
+    <t>Q1**</t>
   </si>
   <si>
-    <t xml:space="preserve"> Last update   : 15/2/2022</t>
+    <t>Q4*</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Last update   : 19/5/2022</t>
   </si>
 </sst>
 </file>
@@ -1382,7 +1385,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1602,6 +1605,9 @@
     <xf numFmtId="43" fontId="11" fillId="0" borderId="5" xfId="33" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="37" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="36" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1616,24 +1622,6 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="39" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="36" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="36" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="36" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="36" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="36" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1659,8 +1647,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="36" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="36" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="36" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="36" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="36" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2174,33 +2180,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="114" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
     </row>
     <row r="2" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="114" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
     </row>
     <row r="3" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="115" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
+      <c r="B3" s="116" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
     </row>
     <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="116" t="s">
+      <c r="B4" s="117" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="102">
@@ -2229,7 +2235,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="117"/>
+      <c r="B5" s="118"/>
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
@@ -4045,31 +4051,31 @@
       <c r="F56" s="1"/>
     </row>
     <row r="57" spans="2:14" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="B57" s="114" t="s">
+      <c r="B57" s="115" t="s">
         <v>28</v>
       </c>
-      <c r="C57" s="114"/>
-      <c r="D57" s="114"/>
-      <c r="E57" s="114"/>
-      <c r="F57" s="114"/>
+      <c r="C57" s="115"/>
+      <c r="D57" s="115"/>
+      <c r="E57" s="115"/>
+      <c r="F57" s="115"/>
     </row>
     <row r="58" spans="2:14" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="B58" s="114" t="s">
+      <c r="B58" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="C58" s="114"/>
-      <c r="D58" s="114"/>
-      <c r="E58" s="114"/>
-      <c r="F58" s="114"/>
+      <c r="C58" s="115"/>
+      <c r="D58" s="115"/>
+      <c r="E58" s="115"/>
+      <c r="F58" s="115"/>
     </row>
     <row r="59" spans="2:14" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="B59" s="114" t="s">
+      <c r="B59" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="C59" s="114"/>
-      <c r="D59" s="114"/>
-      <c r="E59" s="114"/>
-      <c r="F59" s="114"/>
+      <c r="C59" s="115"/>
+      <c r="D59" s="115"/>
+      <c r="E59" s="115"/>
+      <c r="F59" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4089,13 +4095,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:BS117"/>
+  <dimension ref="B1:BT117"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="10" ySplit="6" topLeftCell="BR7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="6" topLeftCell="BP7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="BT6" sqref="BT6"/>
+      <selection pane="bottomRight" activeCell="BT12" sqref="BT12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -4126,34 +4132,34 @@
     <col min="40" max="42" width="12.7109375" style="11" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="43" max="43" width="12.7109375" style="11" customWidth="1" collapsed="1"/>
     <col min="44" max="58" width="14.7109375" style="11" customWidth="1"/>
-    <col min="59" max="71" width="15.7109375" style="11" customWidth="1"/>
-    <col min="72" max="16384" width="9.140625" style="11"/>
+    <col min="59" max="72" width="15.7109375" style="11" customWidth="1"/>
+    <col min="73" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:71" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="113" t="s">
+    <row r="1" spans="2:72" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="114" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
       <c r="J1" s="106"/>
     </row>
-    <row r="2" spans="2:71" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="113" t="s">
+    <row r="2" spans="2:72" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="114" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
       <c r="J2" s="34"/>
       <c r="K2" s="105"/>
       <c r="L2" s="105"/>
@@ -4164,28 +4170,28 @@
       <c r="Q2" s="105"/>
       <c r="R2" s="105"/>
     </row>
-    <row r="3" spans="2:71" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="122" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="122"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="122"/>
+    <row r="3" spans="2:72" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="133" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
       <c r="BA3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="2:71" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="2:71" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="125" t="s">
+    <row r="4" spans="2:72" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="2:72" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="126"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
       <c r="H5" s="107">
         <v>2006</v>
       </c>
@@ -4250,62 +4256,65 @@
       <c r="AM5" s="99">
         <v>2013</v>
       </c>
-      <c r="AN5" s="129">
+      <c r="AN5" s="124">
         <v>2014</v>
       </c>
-      <c r="AO5" s="130"/>
-      <c r="AP5" s="130"/>
-      <c r="AQ5" s="131"/>
-      <c r="AR5" s="129">
+      <c r="AO5" s="125"/>
+      <c r="AP5" s="125"/>
+      <c r="AQ5" s="126"/>
+      <c r="AR5" s="124">
         <v>2015</v>
       </c>
-      <c r="AS5" s="132"/>
-      <c r="AT5" s="132"/>
-      <c r="AU5" s="132"/>
-      <c r="AV5" s="123">
+      <c r="AS5" s="128"/>
+      <c r="AT5" s="128"/>
+      <c r="AU5" s="128"/>
+      <c r="AV5" s="127">
         <v>2016</v>
       </c>
-      <c r="AW5" s="123"/>
-      <c r="AX5" s="123"/>
-      <c r="AY5" s="123"/>
-      <c r="AZ5" s="123">
+      <c r="AW5" s="127"/>
+      <c r="AX5" s="127"/>
+      <c r="AY5" s="127"/>
+      <c r="AZ5" s="127">
         <v>2017</v>
       </c>
-      <c r="BA5" s="123"/>
-      <c r="BB5" s="123"/>
-      <c r="BC5" s="123"/>
-      <c r="BD5" s="118" t="s">
+      <c r="BA5" s="127"/>
+      <c r="BB5" s="127"/>
+      <c r="BC5" s="127"/>
+      <c r="BD5" s="129" t="s">
         <v>111</v>
       </c>
-      <c r="BE5" s="119"/>
-      <c r="BF5" s="119"/>
-      <c r="BG5" s="120"/>
-      <c r="BH5" s="121" t="s">
+      <c r="BE5" s="130"/>
+      <c r="BF5" s="130"/>
+      <c r="BG5" s="131"/>
+      <c r="BH5" s="132" t="s">
         <v>112</v>
       </c>
-      <c r="BI5" s="121"/>
-      <c r="BJ5" s="121"/>
-      <c r="BK5" s="121"/>
-      <c r="BL5" s="118">
+      <c r="BI5" s="132"/>
+      <c r="BJ5" s="132"/>
+      <c r="BK5" s="132"/>
+      <c r="BL5" s="129">
         <v>2020</v>
       </c>
-      <c r="BM5" s="119"/>
-      <c r="BN5" s="119"/>
-      <c r="BO5" s="119"/>
-      <c r="BP5" s="118">
+      <c r="BM5" s="130"/>
+      <c r="BN5" s="130"/>
+      <c r="BO5" s="130"/>
+      <c r="BP5" s="129">
         <v>2021</v>
       </c>
-      <c r="BQ5" s="119"/>
-      <c r="BR5" s="119"/>
-      <c r="BS5" s="120"/>
-    </row>
-    <row r="6" spans="2:71" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="127"/>
-      <c r="C6" s="128"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="128"/>
-      <c r="F6" s="128"/>
-      <c r="G6" s="128"/>
+      <c r="BQ5" s="130"/>
+      <c r="BR5" s="130"/>
+      <c r="BS5" s="131"/>
+      <c r="BT5" s="113">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="2:72" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="122"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="123"/>
+      <c r="G6" s="123"/>
       <c r="H6" s="69" t="s">
         <v>2</v>
       </c>
@@ -4496,10 +4505,13 @@
         <v>110</v>
       </c>
       <c r="BS6" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="BT6" s="12" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="2:71" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B7" s="15"/>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
@@ -4570,8 +4582,9 @@
       <c r="BQ7" s="17"/>
       <c r="BR7" s="17"/>
       <c r="BS7" s="17"/>
-    </row>
-    <row r="8" spans="2:71" x14ac:dyDescent="0.2">
+      <c r="BT7" s="17"/>
+    </row>
+    <row r="8" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B8" s="15" t="s">
         <v>35</v>
       </c>
@@ -4772,8 +4785,11 @@
       <c r="BS8" s="82">
         <v>200174.64315450197</v>
       </c>
-    </row>
-    <row r="9" spans="2:71" x14ac:dyDescent="0.2">
+      <c r="BT8" s="82">
+        <v>196247.1622420401</v>
+      </c>
+    </row>
+    <row r="9" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B9" s="15"/>
       <c r="C9" s="11" t="s">
         <v>37</v>
@@ -4975,8 +4991,11 @@
       <c r="BS9" s="82">
         <v>107.49530746603166</v>
       </c>
-    </row>
-    <row r="10" spans="2:71" x14ac:dyDescent="0.2">
+      <c r="BT9" s="82">
+        <v>284.697360172738</v>
+      </c>
+    </row>
+    <row r="10" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B10" s="15"/>
       <c r="D10" s="11" t="s">
         <v>39</v>
@@ -5177,8 +5196,11 @@
       <c r="BS10" s="86">
         <v>107.49530746603166</v>
       </c>
-    </row>
-    <row r="11" spans="2:71" x14ac:dyDescent="0.2">
+      <c r="BT10" s="86">
+        <v>284.697360172738</v>
+      </c>
+    </row>
+    <row r="11" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B11" s="15"/>
       <c r="D11" s="11" t="s">
         <v>41</v>
@@ -5379,8 +5401,11 @@
       <c r="BS11" s="89">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="2:71" x14ac:dyDescent="0.2">
+      <c r="BT11" s="89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B12" s="15"/>
       <c r="D12" s="11" t="s">
         <v>43</v>
@@ -5581,8 +5606,11 @@
       <c r="BS12" s="89">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="2:71" x14ac:dyDescent="0.2">
+      <c r="BT12" s="89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B13" s="15"/>
       <c r="D13" s="11" t="s">
         <v>45</v>
@@ -5783,8 +5811,11 @@
       <c r="BS13" s="89">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="2:71" x14ac:dyDescent="0.2">
+      <c r="BT13" s="89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B14" s="15"/>
       <c r="C14" s="11" t="s">
         <v>47</v>
@@ -5985,8 +6016,11 @@
       <c r="BS14" s="82">
         <v>200067.14784703593</v>
       </c>
-    </row>
-    <row r="15" spans="2:71" x14ac:dyDescent="0.2">
+      <c r="BT14" s="82">
+        <v>195962.46488186734</v>
+      </c>
+    </row>
+    <row r="15" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B15" s="15"/>
       <c r="D15" s="11" t="s">
         <v>49</v>
@@ -6186,8 +6220,11 @@
       <c r="BS15" s="86">
         <v>143602.88824464369</v>
       </c>
-    </row>
-    <row r="16" spans="2:71" x14ac:dyDescent="0.2">
+      <c r="BT15" s="86">
+        <v>139099.67959311249</v>
+      </c>
+    </row>
+    <row r="16" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B16" s="15"/>
       <c r="D16" s="11" t="s">
         <v>51</v>
@@ -6387,8 +6424,11 @@
       <c r="BS16" s="86">
         <v>56464.259602392238</v>
       </c>
-    </row>
-    <row r="17" spans="2:71" x14ac:dyDescent="0.2">
+      <c r="BT16" s="86">
+        <v>56862.785288754836</v>
+      </c>
+    </row>
+    <row r="17" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B17" s="15"/>
       <c r="D17" s="11" t="s">
         <v>52</v>
@@ -6588,8 +6628,11 @@
       <c r="BS17" s="81">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:71" x14ac:dyDescent="0.2">
+      <c r="BT17" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B18" s="15"/>
       <c r="D18" s="11" t="s">
         <v>53</v>
@@ -6789,8 +6832,11 @@
       <c r="BS18" s="81">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:71" x14ac:dyDescent="0.2">
+      <c r="BT18" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B19" s="15"/>
       <c r="H19" s="81" t="s">
         <v>104</v>
@@ -6872,8 +6918,9 @@
       <c r="BQ19" s="86"/>
       <c r="BR19" s="86"/>
       <c r="BS19" s="86"/>
-    </row>
-    <row r="20" spans="2:71" x14ac:dyDescent="0.2">
+      <c r="BT19" s="86"/>
+    </row>
+    <row r="20" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B20" s="15" t="s">
         <v>54</v>
       </c>
@@ -7070,13 +7117,16 @@
         <v>2836.3288863752296</v>
       </c>
       <c r="BR20" s="82">
-        <v>9107.7884162636074</v>
+        <v>9107.7867495099454</v>
       </c>
       <c r="BS20" s="82">
-        <v>9018.0422932226156</v>
-      </c>
-    </row>
-    <row r="21" spans="2:71" x14ac:dyDescent="0.2">
+        <v>9030.234442012299</v>
+      </c>
+      <c r="BT20" s="82">
+        <v>8912.6763990984418</v>
+      </c>
+    </row>
+    <row r="21" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B21" s="15"/>
       <c r="C21" s="11" t="s">
         <v>56</v>
@@ -7272,13 +7322,16 @@
         <v>10.658749575229681</v>
       </c>
       <c r="BR21" s="82">
-        <v>10.637624343605893</v>
+        <v>10.635957589944836</v>
       </c>
       <c r="BS21" s="82">
-        <v>10.669660892616616</v>
-      </c>
-    </row>
-    <row r="22" spans="2:71" x14ac:dyDescent="0.2">
+        <v>22.861809682298642</v>
+      </c>
+      <c r="BT21" s="82">
+        <v>10.209844648441877</v>
+      </c>
+    </row>
+    <row r="22" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B22" s="15"/>
       <c r="D22" s="11" t="s">
         <v>57</v>
@@ -7478,8 +7531,11 @@
       <c r="BS22" s="86">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:71" x14ac:dyDescent="0.2">
+      <c r="BT22" s="86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B23" s="15"/>
       <c r="D23" s="11" t="s">
         <v>58</v>
@@ -7679,8 +7735,11 @@
       <c r="BS23" s="81">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:71" x14ac:dyDescent="0.2">
+      <c r="BT23" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B24" s="15"/>
       <c r="D24" s="11" t="s">
         <v>59</v>
@@ -7875,13 +7934,16 @@
         <v>10.658749575229681</v>
       </c>
       <c r="BR24" s="86">
-        <v>10.637624343605893</v>
+        <v>10.635957589944836</v>
       </c>
       <c r="BS24" s="86">
-        <v>10.669660892616616</v>
-      </c>
-    </row>
-    <row r="25" spans="2:71" x14ac:dyDescent="0.2">
+        <v>22.861809682298642</v>
+      </c>
+      <c r="BT24" s="86">
+        <v>10.209844648441877</v>
+      </c>
+    </row>
+    <row r="25" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B25" s="15"/>
       <c r="D25" s="11" t="s">
         <v>61</v>
@@ -8081,8 +8143,11 @@
       <c r="BS25" s="86">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:71" x14ac:dyDescent="0.2">
+      <c r="BT25" s="86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B26" s="15"/>
       <c r="C26" s="11" t="s">
         <v>62</v>
@@ -8283,8 +8348,11 @@
       <c r="BS26" s="82">
         <v>9007.3726323299998</v>
       </c>
-    </row>
-    <row r="27" spans="2:71" x14ac:dyDescent="0.2">
+      <c r="BT26" s="82">
+        <v>8902.4665544500003</v>
+      </c>
+    </row>
+    <row r="27" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B27" s="15"/>
       <c r="D27" s="11" t="s">
         <v>63</v>
@@ -8484,8 +8552,11 @@
       <c r="BS27" s="81">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:71" x14ac:dyDescent="0.2">
+      <c r="BT27" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B28" s="15"/>
       <c r="D28" s="11" t="s">
         <v>64</v>
@@ -8685,8 +8756,11 @@
       <c r="BS28" s="86">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="2:71" x14ac:dyDescent="0.2">
+      <c r="BT28" s="86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B29" s="15"/>
       <c r="D29" s="11" t="s">
         <v>65</v>
@@ -8886,8 +8960,11 @@
       <c r="BS29" s="81">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="2:71" x14ac:dyDescent="0.2">
+      <c r="BT29" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B30" s="15"/>
       <c r="E30" s="11" t="s">
         <v>46</v>
@@ -9084,8 +9161,11 @@
       <c r="BS30" s="86">
         <v>9007.3726323299998</v>
       </c>
-    </row>
-    <row r="31" spans="2:71" x14ac:dyDescent="0.2">
+      <c r="BT30" s="86">
+        <v>8902.4665544500003</v>
+      </c>
+    </row>
+    <row r="31" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B31" s="15"/>
       <c r="H31" s="81" t="s">
         <v>104</v>
@@ -9167,8 +9247,9 @@
       <c r="BQ31" s="86"/>
       <c r="BR31" s="86"/>
       <c r="BS31" s="86"/>
-    </row>
-    <row r="32" spans="2:71" x14ac:dyDescent="0.2">
+      <c r="BT31" s="86"/>
+    </row>
+    <row r="32" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B32" s="15" t="s">
         <v>66</v>
       </c>
@@ -9360,16 +9441,19 @@
         <v>34042.840542632446</v>
       </c>
       <c r="BQ32" s="82">
-        <v>33216.954528259819</v>
+        <v>33216.954528259812</v>
       </c>
       <c r="BR32" s="82">
-        <v>34017.387785138715</v>
+        <v>34017.379317938714</v>
       </c>
       <c r="BS32" s="82">
-        <v>32961.228011395673</v>
-      </c>
-    </row>
-    <row r="33" spans="2:71" x14ac:dyDescent="0.2">
+        <v>32971.946157102975</v>
+      </c>
+      <c r="BT32" s="82">
+        <v>32933.26649769966</v>
+      </c>
+    </row>
+    <row r="33" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B33" s="15"/>
       <c r="C33" s="11" t="s">
         <v>68</v>
@@ -9565,13 +9649,16 @@
         <v>17240.935235622557</v>
       </c>
       <c r="BR33" s="82">
-        <v>17926.822028268914</v>
+        <v>17926.813561068913</v>
       </c>
       <c r="BS33" s="82">
-        <v>18127.32386703161</v>
-      </c>
-    </row>
-    <row r="34" spans="2:71" x14ac:dyDescent="0.2">
+        <v>17703.042012738912</v>
+      </c>
+      <c r="BT33" s="82">
+        <v>18098.062253742464</v>
+      </c>
+    </row>
+    <row r="34" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B34" s="15"/>
       <c r="D34" s="11" t="s">
         <v>69</v>
@@ -9760,19 +9847,22 @@
         <v>1846.8111574987001</v>
       </c>
       <c r="BP34" s="86">
-        <v>2087.4756548880005</v>
+        <v>2087.4756548879986</v>
       </c>
       <c r="BQ34" s="86">
-        <v>2232.8615712928008</v>
+        <v>2232.8615712928013</v>
       </c>
       <c r="BR34" s="86">
-        <v>2156.0090693599</v>
+        <v>2156.0006021599002</v>
       </c>
       <c r="BS34" s="86">
-        <v>2411.9211912574997</v>
-      </c>
-    </row>
-    <row r="35" spans="2:71" x14ac:dyDescent="0.2">
+        <v>2422.6393369648008</v>
+      </c>
+      <c r="BT34" s="86">
+        <v>2525.5829128190007</v>
+      </c>
+    </row>
+    <row r="35" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B35" s="15"/>
       <c r="D35" s="11" t="s">
         <v>70</v>
@@ -9967,13 +10057,16 @@
         <v>588.94883704340009</v>
       </c>
       <c r="BR35" s="86">
-        <v>553.65317078660007</v>
+        <v>553.65317078659984</v>
       </c>
       <c r="BS35" s="86">
-        <v>587.02375928969991</v>
-      </c>
-    </row>
-    <row r="36" spans="2:71" x14ac:dyDescent="0.2">
+        <v>152.02375928970002</v>
+      </c>
+      <c r="BT35" s="86">
+        <v>133.00555714539999</v>
+      </c>
+    </row>
+    <row r="36" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B36" s="15"/>
       <c r="D36" s="11" t="s">
         <v>71</v>
@@ -10173,8 +10266,11 @@
       <c r="BS36" s="86">
         <v>13914.073726484803</v>
       </c>
-    </row>
-    <row r="37" spans="2:71" x14ac:dyDescent="0.2">
+      <c r="BT36" s="86">
+        <v>13744.136596805949</v>
+      </c>
+    </row>
+    <row r="37" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B37" s="15"/>
       <c r="D37" s="11" t="s">
         <v>72</v>
@@ -10374,8 +10470,11 @@
       <c r="BS37" s="86">
         <v>1214.3051899996069</v>
       </c>
-    </row>
-    <row r="38" spans="2:71" x14ac:dyDescent="0.2">
+      <c r="BT37" s="86">
+        <v>1695.3371869721177</v>
+      </c>
+    </row>
+    <row r="38" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B38" s="15"/>
       <c r="C38" s="11" t="s">
         <v>73</v>
@@ -10568,16 +10667,19 @@
         <v>16412.755000371355</v>
       </c>
       <c r="BQ38" s="82">
-        <v>15976.019292637262</v>
+        <v>15976.019292637258</v>
       </c>
       <c r="BR38" s="82">
-        <v>16090.565756869799</v>
+        <v>16090.565756869797</v>
       </c>
       <c r="BS38" s="82">
-        <v>14833.904144364062</v>
-      </c>
-    </row>
-    <row r="39" spans="2:71" x14ac:dyDescent="0.2">
+        <v>15268.904144364062</v>
+      </c>
+      <c r="BT38" s="82">
+        <v>14835.204243957198</v>
+      </c>
+    </row>
+    <row r="39" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B39" s="15"/>
       <c r="D39" s="11" t="s">
         <v>74</v>
@@ -10766,19 +10868,22 @@
         <v>4787.3797271872172</v>
       </c>
       <c r="BP39" s="86">
-        <v>5271.5626664961565</v>
+        <v>5271.5626664961546</v>
       </c>
       <c r="BQ39" s="86">
-        <v>5449.0191012096602</v>
+        <v>5449.0191012096584</v>
       </c>
       <c r="BR39" s="86">
-        <v>5890.9020129678984</v>
+        <v>5890.9020129678975</v>
       </c>
       <c r="BS39" s="86">
         <v>5848.6803593980612</v>
       </c>
-    </row>
-    <row r="40" spans="2:71" x14ac:dyDescent="0.2">
+      <c r="BT39" s="86">
+        <v>5821.5933431728972</v>
+      </c>
+    </row>
+    <row r="40" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B40" s="15"/>
       <c r="D40" s="11" t="s">
         <v>75</v>
@@ -10970,16 +11075,19 @@
         <v>11140.1787639824</v>
       </c>
       <c r="BQ40" s="86">
-        <v>10526.339835386501</v>
+        <v>10526.3398353865</v>
       </c>
       <c r="BR40" s="86">
         <v>10198.9458025316</v>
       </c>
       <c r="BS40" s="86">
-        <v>8984.5296336393003</v>
-      </c>
-    </row>
-    <row r="41" spans="2:71" x14ac:dyDescent="0.2">
+        <v>9419.5296336393003</v>
+      </c>
+      <c r="BT40" s="86">
+        <v>9012.798974241101</v>
+      </c>
+    </row>
+    <row r="41" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B41" s="15"/>
       <c r="D41" s="11" t="s">
         <v>76</v>
@@ -11179,8 +11287,11 @@
       <c r="BS41" s="81">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:71" x14ac:dyDescent="0.2">
+      <c r="BT41" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B42" s="15"/>
       <c r="D42" s="11" t="s">
         <v>77</v>
@@ -11369,19 +11480,22 @@
         <v>1.0095742988</v>
       </c>
       <c r="BP42" s="110">
-        <v>1.0135698928000001</v>
+        <v>1.0135698927999999</v>
       </c>
       <c r="BQ42" s="110">
-        <v>0.66035604110000001</v>
+        <v>0.66035604110000012</v>
       </c>
       <c r="BR42" s="110">
-        <v>0.71794137030000016</v>
+        <v>0.71794137030000005</v>
       </c>
       <c r="BS42" s="110">
-        <v>0.6941513266999999</v>
-      </c>
-    </row>
-    <row r="43" spans="2:71" x14ac:dyDescent="0.2">
+        <v>0.69415132670000013</v>
+      </c>
+      <c r="BT42" s="110">
+        <v>0.81192654319999991</v>
+      </c>
+    </row>
+    <row r="43" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B43" s="15"/>
       <c r="H43" s="81" t="s">
         <v>104</v>
@@ -11463,8 +11577,9 @@
       <c r="BQ43" s="86"/>
       <c r="BR43" s="86"/>
       <c r="BS43" s="86"/>
-    </row>
-    <row r="44" spans="2:71" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="BT43" s="86"/>
+    </row>
+    <row r="44" spans="2:72" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B44" s="15" t="s">
         <v>78</v>
       </c>
@@ -11654,19 +11769,22 @@
         <v>174089.22652163947</v>
       </c>
       <c r="BP44" s="82">
-        <v>175480.87989960363</v>
+        <v>176159.97805587386</v>
       </c>
       <c r="BQ44" s="82">
-        <v>175190.06566571302</v>
+        <v>175669.13476833564</v>
       </c>
       <c r="BR44" s="82">
-        <v>175329.88105034898</v>
+        <v>175867.13154854608</v>
       </c>
       <c r="BS44" s="82">
-        <v>172911.50946885205</v>
-      </c>
-    </row>
-    <row r="45" spans="2:71" x14ac:dyDescent="0.2">
+        <v>173515.62350529578</v>
+      </c>
+      <c r="BT44" s="82">
+        <v>173423.99096715072</v>
+      </c>
+    </row>
+    <row r="45" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B45" s="15"/>
       <c r="C45" s="11" t="s">
         <v>80</v>
@@ -11856,19 +11974,22 @@
         <v>25907.726787828218</v>
       </c>
       <c r="BP45" s="82">
-        <v>27170.6100873582</v>
+        <v>27387.065110064006</v>
       </c>
       <c r="BQ45" s="82">
-        <v>29868.646636168305</v>
+        <v>29833.047814020905</v>
       </c>
       <c r="BR45" s="82">
-        <v>31473.620667620002</v>
+        <v>31447.158401106994</v>
       </c>
       <c r="BS45" s="82">
-        <v>30371.753126668897</v>
-      </c>
-    </row>
-    <row r="46" spans="2:71" x14ac:dyDescent="0.2">
+        <v>30142.9360876725</v>
+      </c>
+      <c r="BT45" s="82">
+        <v>31377.249996975897</v>
+      </c>
+    </row>
+    <row r="46" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B46" s="15"/>
       <c r="D46" s="11" t="s">
         <v>81</v>
@@ -12057,19 +12178,22 @@
         <v>671.22596299650013</v>
       </c>
       <c r="BP46" s="86">
-        <v>741.62685526150017</v>
+        <v>741.37685526149971</v>
       </c>
       <c r="BQ46" s="86">
-        <v>721.74267687010001</v>
+        <v>721.4926768700999</v>
       </c>
       <c r="BR46" s="86">
-        <v>796.39643944540023</v>
+        <v>796.14643944540001</v>
       </c>
       <c r="BS46" s="86">
-        <v>774.73820651690016</v>
-      </c>
-    </row>
-    <row r="47" spans="2:71" x14ac:dyDescent="0.2">
+        <v>774.48820651690016</v>
+      </c>
+      <c r="BT46" s="86">
+        <v>696.61917459699987</v>
+      </c>
+    </row>
+    <row r="47" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B47" s="15"/>
       <c r="D47" s="11" t="s">
         <v>82</v>
@@ -12258,19 +12382,22 @@
         <v>13227.698362357409</v>
       </c>
       <c r="BP47" s="86">
-        <v>13138.484945167596</v>
+        <v>13408.409216048003</v>
       </c>
       <c r="BQ47" s="86">
-        <v>14193.775018255701</v>
+        <v>14216.3758089314</v>
       </c>
       <c r="BR47" s="86">
-        <v>14279.057415462699</v>
+        <v>14277.987174340396</v>
       </c>
       <c r="BS47" s="86">
-        <v>14582.266680882298</v>
-      </c>
-    </row>
-    <row r="48" spans="2:71" x14ac:dyDescent="0.2">
+        <v>14238.222073271196</v>
+      </c>
+      <c r="BT47" s="86">
+        <v>14521.7140009172</v>
+      </c>
+    </row>
+    <row r="48" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B48" s="15"/>
       <c r="D48" s="11" t="s">
         <v>83</v>
@@ -12470,8 +12597,11 @@
       <c r="BS48" s="81">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="2:71" x14ac:dyDescent="0.2">
+      <c r="BT48" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B49" s="15"/>
       <c r="D49" s="11" t="s">
         <v>84</v>
@@ -12660,19 +12790,22 @@
         <v>10637.011210993307</v>
       </c>
       <c r="BP49" s="86">
-        <v>11856.349457885903</v>
+        <v>11791.167226400703</v>
       </c>
       <c r="BQ49" s="86">
-        <v>13494.057899374904</v>
+        <v>13423.817959264605</v>
       </c>
       <c r="BR49" s="86">
-        <v>14067.2074845672</v>
+        <v>14026.839598664499</v>
       </c>
       <c r="BS49" s="86">
-        <v>13519.123406403402</v>
-      </c>
-    </row>
-    <row r="50" spans="2:71" x14ac:dyDescent="0.2">
+        <v>13644.317674392203</v>
+      </c>
+      <c r="BT49" s="86">
+        <v>14537.018881031498</v>
+      </c>
+    </row>
+    <row r="50" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B50" s="15"/>
       <c r="D50" s="11" t="s">
         <v>85</v>
@@ -12861,19 +12994,22 @@
         <v>1371.7912514809998</v>
       </c>
       <c r="BP50" s="86">
-        <v>1434.1488290432003</v>
+        <v>1446.1118123537999</v>
       </c>
       <c r="BQ50" s="86">
-        <v>1459.0710416676002</v>
+        <v>1471.3613689548006</v>
       </c>
       <c r="BR50" s="86">
-        <v>2330.9593281447001</v>
+        <v>2346.1851886566997</v>
       </c>
       <c r="BS50" s="86">
-        <v>1495.6248328663</v>
-      </c>
-    </row>
-    <row r="51" spans="2:71" x14ac:dyDescent="0.2">
+        <v>1485.9081334922005</v>
+      </c>
+      <c r="BT50" s="86">
+        <v>1621.8979404302008</v>
+      </c>
+    </row>
+    <row r="51" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B51" s="15"/>
       <c r="C51" s="11" t="s">
         <v>86</v>
@@ -13063,19 +13199,22 @@
         <v>148181.49973381124</v>
       </c>
       <c r="BP51" s="82">
-        <v>148310.26981224545</v>
+        <v>148772.91294580986</v>
       </c>
       <c r="BQ51" s="82">
-        <v>145321.41902954472</v>
+        <v>145836.08695431473</v>
       </c>
       <c r="BR51" s="82">
-        <v>143856.26038272897</v>
+        <v>144419.9731474391</v>
       </c>
       <c r="BS51" s="82">
-        <v>142539.75634218316</v>
-      </c>
-    </row>
-    <row r="52" spans="2:71" x14ac:dyDescent="0.2">
+        <v>143372.68741762327</v>
+      </c>
+      <c r="BT51" s="82">
+        <v>142046.74097017481</v>
+      </c>
+    </row>
+    <row r="52" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B52" s="15"/>
       <c r="D52" s="11" t="s">
         <v>87</v>
@@ -13264,19 +13403,22 @@
         <v>47315.526327980573</v>
       </c>
       <c r="BP52" s="86">
-        <v>49199.537531831476</v>
+        <v>49204.517973774855</v>
       </c>
       <c r="BQ52" s="86">
-        <v>50840.942928515542</v>
+        <v>50845.916714387538</v>
       </c>
       <c r="BR52" s="86">
-        <v>50469.978664597271</v>
+        <v>50474.935591728361</v>
       </c>
       <c r="BS52" s="86">
-        <v>49772.086212571427</v>
-      </c>
-    </row>
-    <row r="53" spans="2:71" x14ac:dyDescent="0.2">
+        <v>49777.039696100939</v>
+      </c>
+      <c r="BT52" s="86">
+        <v>49298.764946667594</v>
+      </c>
+    </row>
+    <row r="53" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B53" s="15"/>
       <c r="D53" s="11" t="s">
         <v>88</v>
@@ -13465,19 +13607,22 @@
         <v>99678.474442589184</v>
       </c>
       <c r="BP53" s="86">
-        <v>98175.770636467671</v>
+        <v>98510.887623718503</v>
       </c>
       <c r="BQ53" s="86">
-        <v>93675.171769928202</v>
+        <v>94061.166228918708</v>
       </c>
       <c r="BR53" s="86">
-        <v>92688.343053420205</v>
+        <v>93120.537874030546</v>
       </c>
       <c r="BS53" s="86">
-        <v>92298.167178918418</v>
-      </c>
-    </row>
-    <row r="54" spans="2:71" x14ac:dyDescent="0.2">
+        <v>92975.408637996428</v>
+      </c>
+      <c r="BT53" s="86">
+        <v>92224.544824048426</v>
+      </c>
+    </row>
+    <row r="54" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B54" s="15"/>
       <c r="D54" s="11" t="s">
         <v>89</v>
@@ -13677,8 +13822,11 @@
       <c r="BS54" s="81">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="2:71" x14ac:dyDescent="0.2">
+      <c r="BT54" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B55" s="15"/>
       <c r="D55" s="11" t="s">
         <v>90</v>
@@ -13867,19 +14015,22 @@
         <v>383.63408924499993</v>
       </c>
       <c r="BP55" s="86">
-        <v>313.33483792389995</v>
+        <v>333.94223321969992</v>
       </c>
       <c r="BQ55" s="86">
-        <v>312.77309125340003</v>
+        <v>334.01084603119995</v>
       </c>
       <c r="BR55" s="86">
-        <v>290.79428626219999</v>
+        <v>313.60483042650009</v>
       </c>
       <c r="BS55" s="86">
-        <v>273.52199331259999</v>
-      </c>
-    </row>
-    <row r="56" spans="2:71" x14ac:dyDescent="0.2">
+        <v>320.93341396279999</v>
+      </c>
+      <c r="BT55" s="86">
+        <v>313.33107339250006</v>
+      </c>
+    </row>
+    <row r="56" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B56" s="15"/>
       <c r="D56" s="11" t="s">
         <v>91</v>
@@ -14068,19 +14219,22 @@
         <v>803.86487399649991</v>
       </c>
       <c r="BP56" s="86">
-        <v>621.62680602240039</v>
+        <v>723.56511509680001</v>
       </c>
       <c r="BQ56" s="86">
-        <v>492.53123984759998</v>
+        <v>594.99316497729978</v>
       </c>
       <c r="BR56" s="86">
-        <v>407.14437844930006</v>
+        <v>510.89485125369993</v>
       </c>
       <c r="BS56" s="86">
-        <v>195.98095738070009</v>
-      </c>
-    </row>
-    <row r="57" spans="2:71" x14ac:dyDescent="0.2">
+        <v>299.30566956309991</v>
+      </c>
+      <c r="BT56" s="86">
+        <v>210.10012606630002</v>
+      </c>
+    </row>
+    <row r="57" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B57" s="15"/>
       <c r="H57" s="77"/>
       <c r="I57" s="76"/>
@@ -14146,8 +14300,9 @@
       <c r="BQ57" s="86"/>
       <c r="BR57" s="86"/>
       <c r="BS57" s="86"/>
-    </row>
-    <row r="58" spans="2:71" x14ac:dyDescent="0.2">
+      <c r="BT57" s="86"/>
+    </row>
+    <row r="58" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B58" s="15"/>
       <c r="H58" s="76"/>
       <c r="I58" s="76"/>
@@ -14213,8 +14368,9 @@
       <c r="BQ58" s="86"/>
       <c r="BR58" s="86"/>
       <c r="BS58" s="86"/>
-    </row>
-    <row r="59" spans="2:71" x14ac:dyDescent="0.2">
+      <c r="BT58" s="86"/>
+    </row>
+    <row r="59" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B59" s="15" t="s">
         <v>92</v>
       </c>
@@ -14405,19 +14561,22 @@
         <v>416935.33140605735</v>
       </c>
       <c r="BP59" s="82">
-        <v>415523.25647533796</v>
+        <v>416202.35463160818</v>
       </c>
       <c r="BQ59" s="82">
-        <v>416272.61360698461</v>
+        <v>416751.68270960718</v>
       </c>
       <c r="BR59" s="82">
-        <v>423993.4988000138</v>
+        <v>424530.73916425725</v>
       </c>
       <c r="BS59" s="82">
-        <v>415065.42292797228</v>
-      </c>
-    </row>
-    <row r="60" spans="2:71" x14ac:dyDescent="0.2">
+        <v>415692.44725891302</v>
+      </c>
+      <c r="BT59" s="82">
+        <v>411517.09610598895</v>
+      </c>
+    </row>
+    <row r="60" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B60" s="15"/>
       <c r="H60" s="76"/>
       <c r="I60" s="76"/>
@@ -14483,8 +14642,9 @@
       <c r="BQ60" s="86"/>
       <c r="BR60" s="86"/>
       <c r="BS60" s="86"/>
-    </row>
-    <row r="61" spans="2:71" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="BT60" s="86"/>
+    </row>
+    <row r="61" spans="2:72" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B61" s="26" t="s">
         <v>94</v>
       </c>
@@ -14555,8 +14715,9 @@
       <c r="BQ61" s="86"/>
       <c r="BR61" s="86"/>
       <c r="BS61" s="86"/>
-    </row>
-    <row r="62" spans="2:71" x14ac:dyDescent="0.2">
+      <c r="BT61" s="86"/>
+    </row>
+    <row r="62" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B62" s="15"/>
       <c r="D62" s="11" t="s">
         <v>96</v>
@@ -14742,19 +14903,22 @@
         <v>7808.6464609340001</v>
       </c>
       <c r="BP62" s="86">
-        <v>8005.755290264</v>
+        <v>7995.5212638515986</v>
       </c>
       <c r="BQ62" s="86">
-        <v>7534.6864417991992</v>
+        <v>7524.6496091257995</v>
       </c>
       <c r="BR62" s="86">
-        <v>7166.7650642296012</v>
+        <v>7156.7125358830008</v>
       </c>
       <c r="BS62" s="86">
-        <v>7555.276489774601</v>
-      </c>
-    </row>
-    <row r="63" spans="2:71" x14ac:dyDescent="0.2">
+        <v>7545.2604901828981</v>
+      </c>
+      <c r="BT62" s="86">
+        <v>7402.0520593274005</v>
+      </c>
+    </row>
+    <row r="63" spans="2:72" x14ac:dyDescent="0.2">
       <c r="B63" s="15"/>
       <c r="D63" s="11" t="s">
         <v>97</v>
@@ -14940,19 +15104,22 @@
         <v>34588.763804458002</v>
       </c>
       <c r="BP63" s="86">
-        <v>34208.033292209002</v>
+        <v>34657.686473172602</v>
       </c>
       <c r="BQ63" s="86">
-        <v>34860.012708438495</v>
+        <v>35151.297740202383</v>
       </c>
       <c r="BR63" s="86">
-        <v>34816.950463810303</v>
+        <v>35166.739330093886</v>
       </c>
       <c r="BS63" s="86">
-        <v>34715.513535824604</v>
-      </c>
-    </row>
-    <row r="64" spans="2:71" ht="14.25" x14ac:dyDescent="0.2">
+        <v>35027.009826712303</v>
+      </c>
+      <c r="BT63" s="86">
+        <v>35461.126917687267</v>
+      </c>
+    </row>
+    <row r="64" spans="2:72" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B64" s="27"/>
       <c r="C64" s="28"/>
       <c r="D64" s="28"/>
@@ -15023,36 +15190,37 @@
       <c r="BQ64" s="111"/>
       <c r="BR64" s="111"/>
       <c r="BS64" s="111"/>
-    </row>
-    <row r="65" spans="2:71" x14ac:dyDescent="0.2">
+      <c r="BT64" s="111"/>
+    </row>
+    <row r="65" spans="2:72" x14ac:dyDescent="0.2">
       <c r="I65" s="33"/>
     </row>
-    <row r="67" spans="2:71" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="124" t="s">
-        <v>114</v>
-      </c>
-      <c r="C67" s="124"/>
-      <c r="D67" s="124"/>
-      <c r="E67" s="124"/>
-      <c r="F67" s="124"/>
-      <c r="G67" s="124"/>
-      <c r="H67" s="124"/>
-      <c r="I67" s="124"/>
-      <c r="J67" s="124"/>
-      <c r="K67" s="124"/>
-      <c r="L67" s="124"/>
-      <c r="M67" s="124"/>
-      <c r="N67" s="124"/>
-      <c r="O67" s="124"/>
-      <c r="P67" s="124"/>
-      <c r="Q67" s="124"/>
-      <c r="R67" s="124"/>
-      <c r="S67" s="124"/>
+    <row r="67" spans="2:72" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="119" t="s">
+        <v>115</v>
+      </c>
+      <c r="C67" s="119"/>
+      <c r="D67" s="119"/>
+      <c r="E67" s="119"/>
+      <c r="F67" s="119"/>
+      <c r="G67" s="119"/>
+      <c r="H67" s="119"/>
+      <c r="I67" s="119"/>
+      <c r="J67" s="119"/>
+      <c r="K67" s="119"/>
+      <c r="L67" s="119"/>
+      <c r="M67" s="119"/>
+      <c r="N67" s="119"/>
+      <c r="O67" s="119"/>
+      <c r="P67" s="119"/>
+      <c r="Q67" s="119"/>
+      <c r="R67" s="119"/>
+      <c r="S67" s="119"/>
       <c r="BD67" s="112"/>
       <c r="BE67" s="112"/>
       <c r="BF67" s="112"/>
     </row>
-    <row r="68" spans="2:71" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:72" x14ac:dyDescent="0.2">
       <c r="BD68" s="112"/>
       <c r="BE68" s="112"/>
       <c r="BF68" s="112"/>
@@ -15069,8 +15237,9 @@
       <c r="BQ68" s="112"/>
       <c r="BR68" s="112"/>
       <c r="BS68" s="112"/>
-    </row>
-    <row r="69" spans="2:71" x14ac:dyDescent="0.2">
+      <c r="BT68" s="112"/>
+    </row>
+    <row r="69" spans="2:72" x14ac:dyDescent="0.2">
       <c r="BD69" s="112"/>
       <c r="BE69" s="112"/>
       <c r="BF69" s="112"/>
@@ -15087,8 +15256,9 @@
       <c r="BQ69" s="112"/>
       <c r="BR69" s="112"/>
       <c r="BS69" s="112"/>
-    </row>
-    <row r="70" spans="2:71" x14ac:dyDescent="0.2">
+      <c r="BT69" s="112"/>
+    </row>
+    <row r="70" spans="2:72" x14ac:dyDescent="0.2">
       <c r="BD70" s="112"/>
       <c r="BE70" s="112"/>
       <c r="BF70" s="112"/>
@@ -15105,8 +15275,9 @@
       <c r="BQ70" s="112"/>
       <c r="BR70" s="112"/>
       <c r="BS70" s="112"/>
-    </row>
-    <row r="71" spans="2:71" x14ac:dyDescent="0.2">
+      <c r="BT70" s="112"/>
+    </row>
+    <row r="71" spans="2:72" x14ac:dyDescent="0.2">
       <c r="BD71" s="112"/>
       <c r="BE71" s="112"/>
       <c r="BF71" s="112"/>
@@ -15123,8 +15294,9 @@
       <c r="BQ71" s="112"/>
       <c r="BR71" s="112"/>
       <c r="BS71" s="112"/>
-    </row>
-    <row r="72" spans="2:71" x14ac:dyDescent="0.2">
+      <c r="BT71" s="112"/>
+    </row>
+    <row r="72" spans="2:72" x14ac:dyDescent="0.2">
       <c r="BD72" s="112"/>
       <c r="BE72" s="112"/>
       <c r="BF72" s="112"/>
@@ -15141,8 +15313,9 @@
       <c r="BQ72" s="112"/>
       <c r="BR72" s="112"/>
       <c r="BS72" s="112"/>
-    </row>
-    <row r="73" spans="2:71" x14ac:dyDescent="0.2">
+      <c r="BT72" s="112"/>
+    </row>
+    <row r="73" spans="2:72" x14ac:dyDescent="0.2">
       <c r="BD73" s="112"/>
       <c r="BE73" s="112"/>
       <c r="BF73" s="112"/>
@@ -15159,8 +15332,9 @@
       <c r="BQ73" s="112"/>
       <c r="BR73" s="112"/>
       <c r="BS73" s="112"/>
-    </row>
-    <row r="74" spans="2:71" x14ac:dyDescent="0.2">
+      <c r="BT73" s="112"/>
+    </row>
+    <row r="74" spans="2:72" x14ac:dyDescent="0.2">
       <c r="BD74" s="112"/>
       <c r="BE74" s="112"/>
       <c r="BF74" s="112"/>
@@ -15177,8 +15351,9 @@
       <c r="BQ74" s="112"/>
       <c r="BR74" s="112"/>
       <c r="BS74" s="112"/>
-    </row>
-    <row r="75" spans="2:71" x14ac:dyDescent="0.2">
+      <c r="BT74" s="112"/>
+    </row>
+    <row r="75" spans="2:72" x14ac:dyDescent="0.2">
       <c r="BD75" s="112"/>
       <c r="BE75" s="112"/>
       <c r="BF75" s="112"/>
@@ -15195,8 +15370,9 @@
       <c r="BQ75" s="112"/>
       <c r="BR75" s="112"/>
       <c r="BS75" s="112"/>
-    </row>
-    <row r="76" spans="2:71" x14ac:dyDescent="0.2">
+      <c r="BT75" s="112"/>
+    </row>
+    <row r="76" spans="2:72" x14ac:dyDescent="0.2">
       <c r="BD76" s="112"/>
       <c r="BE76" s="112"/>
       <c r="BF76" s="112"/>
@@ -15213,8 +15389,9 @@
       <c r="BQ76" s="112"/>
       <c r="BR76" s="112"/>
       <c r="BS76" s="112"/>
-    </row>
-    <row r="77" spans="2:71" x14ac:dyDescent="0.2">
+      <c r="BT76" s="112"/>
+    </row>
+    <row r="77" spans="2:72" x14ac:dyDescent="0.2">
       <c r="BD77" s="112"/>
       <c r="BE77" s="112"/>
       <c r="BF77" s="112"/>
@@ -15231,8 +15408,9 @@
       <c r="BQ77" s="112"/>
       <c r="BR77" s="112"/>
       <c r="BS77" s="112"/>
-    </row>
-    <row r="78" spans="2:71" x14ac:dyDescent="0.2">
+      <c r="BT77" s="112"/>
+    </row>
+    <row r="78" spans="2:72" x14ac:dyDescent="0.2">
       <c r="BD78" s="112"/>
       <c r="BE78" s="112"/>
       <c r="BF78" s="112"/>
@@ -15249,8 +15427,9 @@
       <c r="BQ78" s="112"/>
       <c r="BR78" s="112"/>
       <c r="BS78" s="112"/>
-    </row>
-    <row r="79" spans="2:71" x14ac:dyDescent="0.2">
+      <c r="BT78" s="112"/>
+    </row>
+    <row r="79" spans="2:72" x14ac:dyDescent="0.2">
       <c r="BD79" s="112"/>
       <c r="BE79" s="112"/>
       <c r="BF79" s="112"/>
@@ -15267,8 +15446,9 @@
       <c r="BQ79" s="112"/>
       <c r="BR79" s="112"/>
       <c r="BS79" s="112"/>
-    </row>
-    <row r="80" spans="2:71" x14ac:dyDescent="0.2">
+      <c r="BT79" s="112"/>
+    </row>
+    <row r="80" spans="2:72" x14ac:dyDescent="0.2">
       <c r="BD80" s="112"/>
       <c r="BE80" s="112"/>
       <c r="BF80" s="112"/>
@@ -15285,8 +15465,9 @@
       <c r="BQ80" s="112"/>
       <c r="BR80" s="112"/>
       <c r="BS80" s="112"/>
-    </row>
-    <row r="81" spans="56:71" x14ac:dyDescent="0.2">
+      <c r="BT80" s="112"/>
+    </row>
+    <row r="81" spans="56:72" x14ac:dyDescent="0.2">
       <c r="BD81" s="112"/>
       <c r="BE81" s="112"/>
       <c r="BF81" s="112"/>
@@ -15303,8 +15484,9 @@
       <c r="BQ81" s="112"/>
       <c r="BR81" s="112"/>
       <c r="BS81" s="112"/>
-    </row>
-    <row r="82" spans="56:71" x14ac:dyDescent="0.2">
+      <c r="BT81" s="112"/>
+    </row>
+    <row r="82" spans="56:72" x14ac:dyDescent="0.2">
       <c r="BD82" s="112"/>
       <c r="BE82" s="112"/>
       <c r="BF82" s="112"/>
@@ -15321,8 +15503,9 @@
       <c r="BQ82" s="112"/>
       <c r="BR82" s="112"/>
       <c r="BS82" s="112"/>
-    </row>
-    <row r="83" spans="56:71" x14ac:dyDescent="0.2">
+      <c r="BT82" s="112"/>
+    </row>
+    <row r="83" spans="56:72" x14ac:dyDescent="0.2">
       <c r="BD83" s="112"/>
       <c r="BE83" s="112"/>
       <c r="BF83" s="112"/>
@@ -15339,8 +15522,9 @@
       <c r="BQ83" s="112"/>
       <c r="BR83" s="112"/>
       <c r="BS83" s="112"/>
-    </row>
-    <row r="84" spans="56:71" x14ac:dyDescent="0.2">
+      <c r="BT83" s="112"/>
+    </row>
+    <row r="84" spans="56:72" x14ac:dyDescent="0.2">
       <c r="BD84" s="112"/>
       <c r="BE84" s="112"/>
       <c r="BF84" s="112"/>
@@ -15357,8 +15541,9 @@
       <c r="BQ84" s="112"/>
       <c r="BR84" s="112"/>
       <c r="BS84" s="112"/>
-    </row>
-    <row r="85" spans="56:71" x14ac:dyDescent="0.2">
+      <c r="BT84" s="112"/>
+    </row>
+    <row r="85" spans="56:72" x14ac:dyDescent="0.2">
       <c r="BD85" s="112"/>
       <c r="BE85" s="112"/>
       <c r="BF85" s="112"/>
@@ -15375,8 +15560,9 @@
       <c r="BQ85" s="112"/>
       <c r="BR85" s="112"/>
       <c r="BS85" s="112"/>
-    </row>
-    <row r="86" spans="56:71" x14ac:dyDescent="0.2">
+      <c r="BT85" s="112"/>
+    </row>
+    <row r="86" spans="56:72" x14ac:dyDescent="0.2">
       <c r="BD86" s="112"/>
       <c r="BE86" s="112"/>
       <c r="BF86" s="112"/>
@@ -15393,8 +15579,9 @@
       <c r="BQ86" s="112"/>
       <c r="BR86" s="112"/>
       <c r="BS86" s="112"/>
-    </row>
-    <row r="87" spans="56:71" x14ac:dyDescent="0.2">
+      <c r="BT86" s="112"/>
+    </row>
+    <row r="87" spans="56:72" x14ac:dyDescent="0.2">
       <c r="BD87" s="112"/>
       <c r="BE87" s="112"/>
       <c r="BF87" s="112"/>
@@ -15411,8 +15598,9 @@
       <c r="BQ87" s="112"/>
       <c r="BR87" s="112"/>
       <c r="BS87" s="112"/>
-    </row>
-    <row r="88" spans="56:71" x14ac:dyDescent="0.2">
+      <c r="BT87" s="112"/>
+    </row>
+    <row r="88" spans="56:72" x14ac:dyDescent="0.2">
       <c r="BD88" s="112"/>
       <c r="BE88" s="112"/>
       <c r="BF88" s="112"/>
@@ -15429,8 +15617,9 @@
       <c r="BQ88" s="112"/>
       <c r="BR88" s="112"/>
       <c r="BS88" s="112"/>
-    </row>
-    <row r="89" spans="56:71" x14ac:dyDescent="0.2">
+      <c r="BT88" s="112"/>
+    </row>
+    <row r="89" spans="56:72" x14ac:dyDescent="0.2">
       <c r="BD89" s="112"/>
       <c r="BE89" s="112"/>
       <c r="BF89" s="112"/>
@@ -15447,8 +15636,9 @@
       <c r="BQ89" s="112"/>
       <c r="BR89" s="112"/>
       <c r="BS89" s="112"/>
-    </row>
-    <row r="90" spans="56:71" x14ac:dyDescent="0.2">
+      <c r="BT89" s="112"/>
+    </row>
+    <row r="90" spans="56:72" x14ac:dyDescent="0.2">
       <c r="BD90" s="112"/>
       <c r="BE90" s="112"/>
       <c r="BF90" s="112"/>
@@ -15465,8 +15655,9 @@
       <c r="BQ90" s="112"/>
       <c r="BR90" s="112"/>
       <c r="BS90" s="112"/>
-    </row>
-    <row r="91" spans="56:71" x14ac:dyDescent="0.2">
+      <c r="BT90" s="112"/>
+    </row>
+    <row r="91" spans="56:72" x14ac:dyDescent="0.2">
       <c r="BD91" s="112"/>
       <c r="BE91" s="112"/>
       <c r="BF91" s="112"/>
@@ -15483,8 +15674,9 @@
       <c r="BQ91" s="112"/>
       <c r="BR91" s="112"/>
       <c r="BS91" s="112"/>
-    </row>
-    <row r="92" spans="56:71" x14ac:dyDescent="0.2">
+      <c r="BT91" s="112"/>
+    </row>
+    <row r="92" spans="56:72" x14ac:dyDescent="0.2">
       <c r="BD92" s="112"/>
       <c r="BE92" s="112"/>
       <c r="BF92" s="112"/>
@@ -15501,8 +15693,9 @@
       <c r="BQ92" s="112"/>
       <c r="BR92" s="112"/>
       <c r="BS92" s="112"/>
-    </row>
-    <row r="93" spans="56:71" x14ac:dyDescent="0.2">
+      <c r="BT92" s="112"/>
+    </row>
+    <row r="93" spans="56:72" x14ac:dyDescent="0.2">
       <c r="BD93" s="112"/>
       <c r="BE93" s="112"/>
       <c r="BF93" s="112"/>
@@ -15519,8 +15712,9 @@
       <c r="BQ93" s="112"/>
       <c r="BR93" s="112"/>
       <c r="BS93" s="112"/>
-    </row>
-    <row r="94" spans="56:71" x14ac:dyDescent="0.2">
+      <c r="BT93" s="112"/>
+    </row>
+    <row r="94" spans="56:72" x14ac:dyDescent="0.2">
       <c r="BD94" s="112"/>
       <c r="BE94" s="112"/>
       <c r="BF94" s="112"/>
@@ -15537,8 +15731,9 @@
       <c r="BQ94" s="112"/>
       <c r="BR94" s="112"/>
       <c r="BS94" s="112"/>
-    </row>
-    <row r="95" spans="56:71" x14ac:dyDescent="0.2">
+      <c r="BT94" s="112"/>
+    </row>
+    <row r="95" spans="56:72" x14ac:dyDescent="0.2">
       <c r="BD95" s="112"/>
       <c r="BE95" s="112"/>
       <c r="BF95" s="112"/>
@@ -15555,8 +15750,9 @@
       <c r="BQ95" s="112"/>
       <c r="BR95" s="112"/>
       <c r="BS95" s="112"/>
-    </row>
-    <row r="96" spans="56:71" x14ac:dyDescent="0.2">
+      <c r="BT95" s="112"/>
+    </row>
+    <row r="96" spans="56:72" x14ac:dyDescent="0.2">
       <c r="BD96" s="112"/>
       <c r="BE96" s="112"/>
       <c r="BF96" s="112"/>
@@ -15573,8 +15769,9 @@
       <c r="BQ96" s="112"/>
       <c r="BR96" s="112"/>
       <c r="BS96" s="112"/>
-    </row>
-    <row r="97" spans="56:71" x14ac:dyDescent="0.2">
+      <c r="BT96" s="112"/>
+    </row>
+    <row r="97" spans="56:72" x14ac:dyDescent="0.2">
       <c r="BD97" s="112"/>
       <c r="BE97" s="112"/>
       <c r="BF97" s="112"/>
@@ -15591,8 +15788,9 @@
       <c r="BQ97" s="112"/>
       <c r="BR97" s="112"/>
       <c r="BS97" s="112"/>
-    </row>
-    <row r="98" spans="56:71" x14ac:dyDescent="0.2">
+      <c r="BT97" s="112"/>
+    </row>
+    <row r="98" spans="56:72" x14ac:dyDescent="0.2">
       <c r="BD98" s="112"/>
       <c r="BE98" s="112"/>
       <c r="BF98" s="112"/>
@@ -15609,8 +15807,9 @@
       <c r="BQ98" s="112"/>
       <c r="BR98" s="112"/>
       <c r="BS98" s="112"/>
-    </row>
-    <row r="99" spans="56:71" x14ac:dyDescent="0.2">
+      <c r="BT98" s="112"/>
+    </row>
+    <row r="99" spans="56:72" x14ac:dyDescent="0.2">
       <c r="BD99" s="112"/>
       <c r="BE99" s="112"/>
       <c r="BF99" s="112"/>
@@ -15627,8 +15826,9 @@
       <c r="BQ99" s="112"/>
       <c r="BR99" s="112"/>
       <c r="BS99" s="112"/>
-    </row>
-    <row r="100" spans="56:71" x14ac:dyDescent="0.2">
+      <c r="BT99" s="112"/>
+    </row>
+    <row r="100" spans="56:72" x14ac:dyDescent="0.2">
       <c r="BD100" s="112"/>
       <c r="BE100" s="112"/>
       <c r="BF100" s="112"/>
@@ -15645,8 +15845,9 @@
       <c r="BQ100" s="112"/>
       <c r="BR100" s="112"/>
       <c r="BS100" s="112"/>
-    </row>
-    <row r="101" spans="56:71" x14ac:dyDescent="0.2">
+      <c r="BT100" s="112"/>
+    </row>
+    <row r="101" spans="56:72" x14ac:dyDescent="0.2">
       <c r="BD101" s="112"/>
       <c r="BE101" s="112"/>
       <c r="BF101" s="112"/>
@@ -15663,8 +15864,9 @@
       <c r="BQ101" s="112"/>
       <c r="BR101" s="112"/>
       <c r="BS101" s="112"/>
-    </row>
-    <row r="102" spans="56:71" x14ac:dyDescent="0.2">
+      <c r="BT101" s="112"/>
+    </row>
+    <row r="102" spans="56:72" x14ac:dyDescent="0.2">
       <c r="BD102" s="112"/>
       <c r="BE102" s="112"/>
       <c r="BF102" s="112"/>
@@ -15681,8 +15883,9 @@
       <c r="BQ102" s="112"/>
       <c r="BR102" s="112"/>
       <c r="BS102" s="112"/>
-    </row>
-    <row r="103" spans="56:71" x14ac:dyDescent="0.2">
+      <c r="BT102" s="112"/>
+    </row>
+    <row r="103" spans="56:72" x14ac:dyDescent="0.2">
       <c r="BD103" s="112"/>
       <c r="BE103" s="112"/>
       <c r="BF103" s="112"/>
@@ -15699,8 +15902,9 @@
       <c r="BQ103" s="112"/>
       <c r="BR103" s="112"/>
       <c r="BS103" s="112"/>
-    </row>
-    <row r="104" spans="56:71" x14ac:dyDescent="0.2">
+      <c r="BT103" s="112"/>
+    </row>
+    <row r="104" spans="56:72" x14ac:dyDescent="0.2">
       <c r="BD104" s="112"/>
       <c r="BE104" s="112"/>
       <c r="BF104" s="112"/>
@@ -15717,8 +15921,9 @@
       <c r="BQ104" s="112"/>
       <c r="BR104" s="112"/>
       <c r="BS104" s="112"/>
-    </row>
-    <row r="105" spans="56:71" x14ac:dyDescent="0.2">
+      <c r="BT104" s="112"/>
+    </row>
+    <row r="105" spans="56:72" x14ac:dyDescent="0.2">
       <c r="BD105" s="112"/>
       <c r="BE105" s="112"/>
       <c r="BF105" s="112"/>
@@ -15735,8 +15940,9 @@
       <c r="BQ105" s="112"/>
       <c r="BR105" s="112"/>
       <c r="BS105" s="112"/>
-    </row>
-    <row r="106" spans="56:71" x14ac:dyDescent="0.2">
+      <c r="BT105" s="112"/>
+    </row>
+    <row r="106" spans="56:72" x14ac:dyDescent="0.2">
       <c r="BD106" s="112"/>
       <c r="BE106" s="112"/>
       <c r="BF106" s="112"/>
@@ -15753,8 +15959,9 @@
       <c r="BQ106" s="112"/>
       <c r="BR106" s="112"/>
       <c r="BS106" s="112"/>
-    </row>
-    <row r="107" spans="56:71" x14ac:dyDescent="0.2">
+      <c r="BT106" s="112"/>
+    </row>
+    <row r="107" spans="56:72" x14ac:dyDescent="0.2">
       <c r="BD107" s="112"/>
       <c r="BE107" s="112"/>
       <c r="BF107" s="112"/>
@@ -15771,8 +15978,9 @@
       <c r="BQ107" s="112"/>
       <c r="BR107" s="112"/>
       <c r="BS107" s="112"/>
-    </row>
-    <row r="108" spans="56:71" x14ac:dyDescent="0.2">
+      <c r="BT107" s="112"/>
+    </row>
+    <row r="108" spans="56:72" x14ac:dyDescent="0.2">
       <c r="BD108" s="112"/>
       <c r="BE108" s="112"/>
       <c r="BF108" s="112"/>
@@ -15789,8 +15997,9 @@
       <c r="BQ108" s="112"/>
       <c r="BR108" s="112"/>
       <c r="BS108" s="112"/>
-    </row>
-    <row r="109" spans="56:71" x14ac:dyDescent="0.2">
+      <c r="BT108" s="112"/>
+    </row>
+    <row r="109" spans="56:72" x14ac:dyDescent="0.2">
       <c r="BD109" s="112"/>
       <c r="BE109" s="112"/>
       <c r="BF109" s="112"/>
@@ -15807,8 +16016,9 @@
       <c r="BQ109" s="112"/>
       <c r="BR109" s="112"/>
       <c r="BS109" s="112"/>
-    </row>
-    <row r="110" spans="56:71" x14ac:dyDescent="0.2">
+      <c r="BT109" s="112"/>
+    </row>
+    <row r="110" spans="56:72" x14ac:dyDescent="0.2">
       <c r="BD110" s="112"/>
       <c r="BE110" s="112"/>
       <c r="BF110" s="112"/>
@@ -15825,8 +16035,9 @@
       <c r="BQ110" s="112"/>
       <c r="BR110" s="112"/>
       <c r="BS110" s="112"/>
-    </row>
-    <row r="111" spans="56:71" x14ac:dyDescent="0.2">
+      <c r="BT110" s="112"/>
+    </row>
+    <row r="111" spans="56:72" x14ac:dyDescent="0.2">
       <c r="BD111" s="112"/>
       <c r="BE111" s="112"/>
       <c r="BF111" s="112"/>
@@ -15843,8 +16054,9 @@
       <c r="BQ111" s="112"/>
       <c r="BR111" s="112"/>
       <c r="BS111" s="112"/>
-    </row>
-    <row r="112" spans="56:71" x14ac:dyDescent="0.2">
+      <c r="BT111" s="112"/>
+    </row>
+    <row r="112" spans="56:72" x14ac:dyDescent="0.2">
       <c r="BD112" s="112"/>
       <c r="BE112" s="112"/>
       <c r="BF112" s="112"/>
@@ -15861,8 +16073,9 @@
       <c r="BQ112" s="112"/>
       <c r="BR112" s="112"/>
       <c r="BS112" s="112"/>
-    </row>
-    <row r="113" spans="56:71" x14ac:dyDescent="0.2">
+      <c r="BT112" s="112"/>
+    </row>
+    <row r="113" spans="56:72" x14ac:dyDescent="0.2">
       <c r="BD113" s="112"/>
       <c r="BE113" s="112"/>
       <c r="BF113" s="112"/>
@@ -15879,8 +16092,9 @@
       <c r="BQ113" s="112"/>
       <c r="BR113" s="112"/>
       <c r="BS113" s="112"/>
-    </row>
-    <row r="114" spans="56:71" x14ac:dyDescent="0.2">
+      <c r="BT113" s="112"/>
+    </row>
+    <row r="114" spans="56:72" x14ac:dyDescent="0.2">
       <c r="BD114" s="112"/>
       <c r="BE114" s="112"/>
       <c r="BF114" s="112"/>
@@ -15897,8 +16111,9 @@
       <c r="BQ114" s="112"/>
       <c r="BR114" s="112"/>
       <c r="BS114" s="112"/>
-    </row>
-    <row r="115" spans="56:71" x14ac:dyDescent="0.2">
+      <c r="BT114" s="112"/>
+    </row>
+    <row r="115" spans="56:72" x14ac:dyDescent="0.2">
       <c r="BD115" s="112"/>
       <c r="BE115" s="112"/>
       <c r="BF115" s="112"/>
@@ -15915,8 +16130,9 @@
       <c r="BQ115" s="112"/>
       <c r="BR115" s="112"/>
       <c r="BS115" s="112"/>
-    </row>
-    <row r="116" spans="56:71" x14ac:dyDescent="0.2">
+      <c r="BT115" s="112"/>
+    </row>
+    <row r="116" spans="56:72" x14ac:dyDescent="0.2">
       <c r="BD116" s="112"/>
       <c r="BE116" s="112"/>
       <c r="BF116" s="112"/>
@@ -15933,8 +16149,9 @@
       <c r="BQ116" s="112"/>
       <c r="BR116" s="112"/>
       <c r="BS116" s="112"/>
-    </row>
-    <row r="117" spans="56:71" x14ac:dyDescent="0.2">
+      <c r="BT116" s="112"/>
+    </row>
+    <row r="117" spans="56:72" x14ac:dyDescent="0.2">
       <c r="BD117" s="112"/>
       <c r="BE117" s="112"/>
       <c r="BF117" s="112"/>
@@ -15951,14 +16168,10 @@
       <c r="BQ117" s="112"/>
       <c r="BR117" s="112"/>
       <c r="BS117" s="112"/>
+      <c r="BT117" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B67:S67"/>
-    <mergeCell ref="B5:G6"/>
-    <mergeCell ref="AN5:AQ5"/>
-    <mergeCell ref="AV5:AY5"/>
-    <mergeCell ref="AR5:AU5"/>
     <mergeCell ref="BP5:BS5"/>
     <mergeCell ref="BL5:BO5"/>
     <mergeCell ref="BH5:BK5"/>
@@ -15967,6 +16180,11 @@
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="AZ5:BC5"/>
     <mergeCell ref="BD5:BG5"/>
+    <mergeCell ref="B67:S67"/>
+    <mergeCell ref="B5:G6"/>
+    <mergeCell ref="AN5:AQ5"/>
+    <mergeCell ref="AV5:AY5"/>
+    <mergeCell ref="AR5:AU5"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.17" top="0" bottom="0" header="0.16" footer="0.17"/>
   <pageSetup scale="55" orientation="landscape" r:id="rId1"/>
